--- a/BITS-X-FIBROSI/respostes_questionari.xlsx
+++ b/BITS-X-FIBROSI/respostes_questionari.xlsx
@@ -499,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,336 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No history of smoking</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Probable UIP</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>biopsy-none</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>anemia, lymphocytosis</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Thalassemia, Sd mielodisplasico, ANAA 1:80</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>anormal</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No history of smoking</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>UIP</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>biopsy-none</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Kaposi Sarcoma, Prostate ADK, Liver cancer</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>lymphocytosis, neutrophilia</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Linfoma folicular, Thalassemia minor</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BITS-X-FIBROSI/respostes_questionari.xlsx
+++ b/BITS-X-FIBROSI/respostes_questionari.xlsx
@@ -499,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,11 +984,740 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
           <t>none</t>
         </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No history of smoking</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>UIP</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>biopsy-none</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>neutrophilia</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No history of smoking</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>UIP</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>biopsy-none</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>thrombocytosis, lymphopenia</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No history of smoking</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>UIP</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>biopsy-none</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>lymphocytosis, lymphopenia</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>roger</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No history of smoking</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>UIP</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>biopsy-none</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>lymphocytosis, lymphopenia, neutrophilia</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roger</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>lymphocytosis, neutrophilia, neutropenia</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
